--- a/runs/run206/NotionalETEOutput206.xlsx
+++ b/runs/run206/NotionalETEOutput206.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER1_State_Update</t>
+    <t>Missile_HIGHWIND2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1_148.MISSILE_BRAVER1_148</t>
+    <t>MISSILE_HIGHWIND2_232.MISSILE_HIGHWIND2_232</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER1</t>
+    <t>MISSILE_HIGHWIND2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1561.565458103049</v>
+        <v>-1511.246260074095</v>
       </c>
       <c r="J2">
-        <v>2005.404750840954</v>
+        <v>1951.558717330616</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1467.704320941264</v>
+        <v>-1541.411731953087</v>
       </c>
       <c r="J3">
-        <v>1998.573619716254</v>
+        <v>1854.50669955088</v>
       </c>
       <c r="K3">
-        <v>305.1732900916664</v>
+        <v>300.0437969968185</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1486.362854064358</v>
+        <v>-1376.60554458455</v>
       </c>
       <c r="J4">
-        <v>1909.879816579535</v>
+        <v>1910.469828295996</v>
       </c>
       <c r="K4">
-        <v>603.2600355344891</v>
+        <v>605.35605878961</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1424.642981641344</v>
+        <v>-1399.834824039785</v>
       </c>
       <c r="J5">
-        <v>1808.169910115825</v>
+        <v>1855.81577714218</v>
       </c>
       <c r="K5">
-        <v>852.6799090819756</v>
+        <v>861.9500694545385</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1358.606760528256</v>
+        <v>-1416.687738916949</v>
       </c>
       <c r="J6">
-        <v>1738.915141343901</v>
+        <v>1811.200715906001</v>
       </c>
       <c r="K6">
-        <v>1169.801572485761</v>
+        <v>1122.061081322863</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1379.600188702719</v>
+        <v>-1357.049589388563</v>
       </c>
       <c r="J7">
-        <v>1779.951525111585</v>
+        <v>1724.410329614313</v>
       </c>
       <c r="K7">
-        <v>1304.03951319989</v>
+        <v>1397.972797284135</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1289.822398161954</v>
+        <v>-1267.609382217866</v>
       </c>
       <c r="J8">
-        <v>1716.294471930749</v>
+        <v>1730.970159422071</v>
       </c>
       <c r="K8">
-        <v>1580.626361929104</v>
+        <v>1644.26287607595</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.45653671657153</v>
+        <v>-99.45058206357412</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1270.878899041319</v>
+        <v>-1321.380978130955</v>
       </c>
       <c r="J9">
-        <v>1589.44597443245</v>
+        <v>1671.985973634557</v>
       </c>
       <c r="K9">
-        <v>1853.896151551131</v>
+        <v>1769.997197290292</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>207.2117188203854</v>
+        <v>221.238183764765</v>
       </c>
       <c r="G10">
-        <v>-83.91893664125799</v>
+        <v>-81.6124940086958</v>
       </c>
       <c r="H10">
-        <v>858.5999450678373</v>
+        <v>844.8225150185881</v>
       </c>
       <c r="I10">
-        <v>-1303.681501850136</v>
+        <v>-1252.230004535101</v>
       </c>
       <c r="J10">
-        <v>1663.895882673705</v>
+        <v>1583.879696889827</v>
       </c>
       <c r="K10">
-        <v>2054.895306474641</v>
+        <v>1920.862387576343</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>174.4718281530627</v>
+        <v>167.2212282231464</v>
       </c>
       <c r="G11">
-        <v>-69.89276564860212</v>
+        <v>-69.37554151291749</v>
       </c>
       <c r="H11">
-        <v>1048.646593256754</v>
+        <v>1091.011400498213</v>
       </c>
       <c r="I11">
-        <v>-1220.705015383624</v>
+        <v>-1202.233797416231</v>
       </c>
       <c r="J11">
-        <v>1600.864862282502</v>
+        <v>1575.815659590671</v>
       </c>
       <c r="K11">
-        <v>2284.424340435341</v>
+        <v>2164.196898043752</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.3731347836458</v>
+        <v>141.1571843632189</v>
       </c>
       <c r="G12">
-        <v>-51.45481517852975</v>
+        <v>-51.41249004761875</v>
       </c>
       <c r="H12">
-        <v>1204.837289805138</v>
+        <v>1140.951681721515</v>
       </c>
       <c r="I12">
-        <v>-1159.955763563686</v>
+        <v>-1207.749597953708</v>
       </c>
       <c r="J12">
-        <v>1456.929297577205</v>
+        <v>1561.547774839054</v>
       </c>
       <c r="K12">
-        <v>2348.789905747985</v>
+        <v>2383.933253410619</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.9646403467034</v>
+        <v>116.3120571356809</v>
       </c>
       <c r="G13">
-        <v>-35.02165997195274</v>
+        <v>-33.73015949415269</v>
       </c>
       <c r="H13">
-        <v>1276.576623320249</v>
+        <v>1246.911272968833</v>
       </c>
       <c r="I13">
-        <v>-1126.30389884784</v>
+        <v>-1098.401399356746</v>
       </c>
       <c r="J13">
-        <v>1398.320693323348</v>
+        <v>1394.865722568389</v>
       </c>
       <c r="K13">
-        <v>2424.979939332775</v>
+        <v>2554.235666116078</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.4836606734815</v>
+        <v>104.4412004900895</v>
       </c>
       <c r="G14">
-        <v>-17.99731957698269</v>
+        <v>-17.57481246051897</v>
       </c>
       <c r="H14">
-        <v>1379.424653534505</v>
+        <v>1336.631671399487</v>
       </c>
       <c r="I14">
-        <v>-1075.179530589951</v>
+        <v>-1061.674873080253</v>
       </c>
       <c r="J14">
-        <v>1378.837553464689</v>
+        <v>1482.788656537242</v>
       </c>
       <c r="K14">
-        <v>2731.918053556784</v>
+        <v>2526.202080097679</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.8744950000754</v>
+        <v>102.3861518756774</v>
       </c>
       <c r="G15">
-        <v>-0.8877530418261439</v>
+        <v>-0.9133728657319254</v>
       </c>
       <c r="H15">
-        <v>1385.768120932214</v>
+        <v>1407.170476466929</v>
       </c>
       <c r="I15">
-        <v>-1091.577137062092</v>
+        <v>-1002.949590604086</v>
       </c>
       <c r="J15">
-        <v>1393.781448659611</v>
+        <v>1319.78593303434</v>
       </c>
       <c r="K15">
-        <v>2760.171635062644</v>
+        <v>2707.409023962944</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>95.45837340590452</v>
+        <v>90.84285312950124</v>
       </c>
       <c r="G16">
-        <v>15.85592802998075</v>
+        <v>15.25445087228797</v>
       </c>
       <c r="H16">
-        <v>1399.440874050697</v>
+        <v>1455.638752513799</v>
       </c>
       <c r="I16">
-        <v>-1006.796903736845</v>
+        <v>-983.2230707625495</v>
       </c>
       <c r="J16">
-        <v>1287.920038521918</v>
+        <v>1328.06032676334</v>
       </c>
       <c r="K16">
-        <v>3009.665660445011</v>
+        <v>2959.16968915997</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.34697212274311</v>
+        <v>89.51185799769024</v>
       </c>
       <c r="G17">
-        <v>31.11414122985279</v>
+        <v>31.30752477144912</v>
       </c>
       <c r="H17">
-        <v>1446.812966512038</v>
+        <v>1423.092310921773</v>
       </c>
       <c r="I17">
-        <v>-997.1267653955437</v>
+        <v>-934.0937079478435</v>
       </c>
       <c r="J17">
-        <v>1287.579743208624</v>
+        <v>1293.290583870812</v>
       </c>
       <c r="K17">
-        <v>3046.267771320173</v>
+        <v>3054.077387549161</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.27851795807258</v>
+        <v>85.05401017989517</v>
       </c>
       <c r="G18">
-        <v>49.74580616615896</v>
+        <v>48.03931299357058</v>
       </c>
       <c r="H18">
-        <v>1505.814232547961</v>
+        <v>1576.362847758862</v>
       </c>
       <c r="I18">
-        <v>-963.2347897258685</v>
+        <v>-946.9061909855347</v>
       </c>
       <c r="J18">
-        <v>1165.923427193692</v>
+        <v>1189.759338255731</v>
       </c>
       <c r="K18">
-        <v>3105.866013851049</v>
+        <v>2994.734408423169</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.60770726812703</v>
+        <v>74.0224591881385</v>
       </c>
       <c r="G19">
-        <v>63.60264022543836</v>
+        <v>63.56304743468215</v>
       </c>
       <c r="H19">
-        <v>1590.611775901376</v>
+        <v>1536.802182470663</v>
       </c>
       <c r="I19">
-        <v>-880.0990302094858</v>
+        <v>-894.3374999647331</v>
       </c>
       <c r="J19">
-        <v>1163.385510663818</v>
+        <v>1159.902109449342</v>
       </c>
       <c r="K19">
-        <v>3112.496466414284</v>
+        <v>3087.244938774383</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.84473912788762</v>
+        <v>77.8187863251258</v>
       </c>
       <c r="G20">
-        <v>79.18812530283537</v>
+        <v>84.5200451975512</v>
       </c>
       <c r="H20">
-        <v>1539.127151321893</v>
+        <v>1635.140846685143</v>
       </c>
       <c r="I20">
-        <v>-870.9039540696421</v>
+        <v>-877.0714983326304</v>
       </c>
       <c r="J20">
-        <v>1175.780585021851</v>
+        <v>1136.11300611252</v>
       </c>
       <c r="K20">
-        <v>3190.783897040342</v>
+        <v>3222.13997570155</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.94910132749465</v>
+        <v>71.19863168187057</v>
       </c>
       <c r="G21">
-        <v>98.19740166966417</v>
+        <v>97.19591503564261</v>
       </c>
       <c r="H21">
-        <v>1546.345264479806</v>
+        <v>1546.194211666217</v>
       </c>
       <c r="I21">
-        <v>-758.3045655737139</v>
+        <v>-830.8130375723752</v>
       </c>
       <c r="J21">
-        <v>1114.98940755604</v>
+        <v>1115.163817755809</v>
       </c>
       <c r="K21">
-        <v>3231.923257634083</v>
+        <v>3042.592816997899</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>68.17077281761553</v>
+        <v>65.67955964901397</v>
       </c>
       <c r="G22">
-        <v>118.2451341640955</v>
+        <v>109.4021493801859</v>
       </c>
       <c r="H22">
-        <v>1639.964995858596</v>
+        <v>1669.920613524391</v>
       </c>
       <c r="I22">
-        <v>-714.5125775342558</v>
+        <v>-753.1938875436659</v>
       </c>
       <c r="J22">
-        <v>1037.319827661561</v>
+        <v>1057.782918627183</v>
       </c>
       <c r="K22">
-        <v>3067.69772706155</v>
+        <v>3316.64231942478</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.32328384320374</v>
+        <v>66.83572676735572</v>
       </c>
       <c r="G23">
-        <v>137.4358964043251</v>
+        <v>128.0337628769456</v>
       </c>
       <c r="H23">
-        <v>1604.955772500012</v>
+        <v>1664.530180469389</v>
       </c>
       <c r="I23">
-        <v>-714.7706915341886</v>
+        <v>-703.5507386336985</v>
       </c>
       <c r="J23">
-        <v>941.2181079377521</v>
+        <v>1006.731740537692</v>
       </c>
       <c r="K23">
-        <v>3284.874066267721</v>
+        <v>3102.864890766854</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.74405790266089</v>
+        <v>61.70263514659359</v>
       </c>
       <c r="G24">
-        <v>151.4576365475659</v>
+        <v>142.1381088658472</v>
       </c>
       <c r="H24">
-        <v>1621.258039379422</v>
+        <v>1708.607150868979</v>
       </c>
       <c r="I24">
-        <v>-636.6721757156373</v>
+        <v>-650.1830906812761</v>
       </c>
       <c r="J24">
-        <v>914.2034931974271</v>
+        <v>967.1681265807498</v>
       </c>
       <c r="K24">
-        <v>3230.748116365576</v>
+        <v>3155.266026156842</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.70587142188442</v>
+        <v>62.3890389111049</v>
       </c>
       <c r="G25">
-        <v>169.6021471134611</v>
+        <v>164.6265078281236</v>
       </c>
       <c r="H25">
-        <v>1725.907698333577</v>
+        <v>1742.743192877725</v>
       </c>
       <c r="I25">
-        <v>-599.2053030779268</v>
+        <v>-580.6962916817827</v>
       </c>
       <c r="J25">
-        <v>857.5800249459575</v>
+        <v>881.636927292399</v>
       </c>
       <c r="K25">
-        <v>3182.541974346526</v>
+        <v>3057.146620820099</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.01842866225441</v>
+        <v>59.04981357819494</v>
       </c>
       <c r="G26">
-        <v>183.6908308632746</v>
+        <v>175.399626905636</v>
       </c>
       <c r="H26">
-        <v>1645.260629287027</v>
+        <v>1776.842582597581</v>
       </c>
       <c r="I26">
-        <v>-563.8408818012107</v>
+        <v>-524.1710326740082</v>
       </c>
       <c r="J26">
-        <v>828.1645287583568</v>
+        <v>830.2756548890096</v>
       </c>
       <c r="K26">
-        <v>3100.051302685426</v>
+        <v>3247.821853971765</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.58224892261077</v>
+        <v>59.30097798579511</v>
       </c>
       <c r="G27">
-        <v>188.2489978039156</v>
+        <v>206.0356586308718</v>
       </c>
       <c r="H27">
-        <v>1696.101808102961</v>
+        <v>1771.013471822891</v>
       </c>
       <c r="I27">
-        <v>-475.8411939418144</v>
+        <v>-490.0339293953848</v>
       </c>
       <c r="J27">
-        <v>821.2679002824425</v>
+        <v>819.4718470554611</v>
       </c>
       <c r="K27">
-        <v>2951.81243240146</v>
+        <v>2937.297833147099</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.37490852737974</v>
+        <v>57.69850703610158</v>
       </c>
       <c r="G28">
-        <v>211.4743949669892</v>
+        <v>219.4640564085047</v>
       </c>
       <c r="H28">
-        <v>1700.541376378208</v>
+        <v>1759.865761738311</v>
       </c>
       <c r="I28">
-        <v>-453.0698324782799</v>
+        <v>-435.1088947165492</v>
       </c>
       <c r="J28">
-        <v>756.8270228571595</v>
+        <v>705.7729525409069</v>
       </c>
       <c r="K28">
-        <v>2991.215233086033</v>
+        <v>2964.78224271598</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.55891168723199</v>
+        <v>52.48979762363756</v>
       </c>
       <c r="G29">
-        <v>239.0318600789179</v>
+        <v>221.3377649849284</v>
       </c>
       <c r="H29">
-        <v>1787.845066166993</v>
+        <v>1754.435454442507</v>
       </c>
       <c r="I29">
-        <v>-395.4473602458493</v>
+        <v>-370.4039363581729</v>
       </c>
       <c r="J29">
-        <v>719.6943057522045</v>
+        <v>658.2887195862002</v>
       </c>
       <c r="K29">
-        <v>2744.645964333125</v>
+        <v>2905.502244710999</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.31262077469716</v>
+        <v>51.03121074373463</v>
       </c>
       <c r="G30">
-        <v>249.6424458002369</v>
+        <v>246.9301108668926</v>
       </c>
       <c r="H30">
-        <v>1741.542238859924</v>
+        <v>1680.666944034646</v>
       </c>
       <c r="I30">
-        <v>-334.8797849444073</v>
+        <v>-338.2258191137784</v>
       </c>
       <c r="J30">
-        <v>625.4763861940002</v>
+        <v>616.8643885706368</v>
       </c>
       <c r="K30">
-        <v>2660.214901371718</v>
+        <v>2893.129022456759</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.19155491185423</v>
+        <v>54.06607256525551</v>
       </c>
       <c r="G31">
-        <v>273.2526718264945</v>
+        <v>252.6113854757347</v>
       </c>
       <c r="H31">
-        <v>1835.549126571939</v>
+        <v>1702.73515494645</v>
       </c>
       <c r="I31">
-        <v>-259.5482136961857</v>
+        <v>-266.6272040155953</v>
       </c>
       <c r="J31">
-        <v>608.1234256305382</v>
+        <v>561.1293375748272</v>
       </c>
       <c r="K31">
-        <v>2642.181125859724</v>
+        <v>2562.495915782253</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.21379655273859</v>
+        <v>49.74517423092423</v>
       </c>
       <c r="G32">
-        <v>290.4760217223022</v>
+        <v>286.677436750875</v>
       </c>
       <c r="H32">
-        <v>1811.325399296095</v>
+        <v>1730.842032916502</v>
       </c>
       <c r="I32">
-        <v>-217.4802630319095</v>
+        <v>-204.4585045843444</v>
       </c>
       <c r="J32">
-        <v>518.2848759152266</v>
+        <v>551.5782146128167</v>
       </c>
       <c r="K32">
-        <v>2545.041964999948</v>
+        <v>2455.464630862495</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.08971742454589</v>
+        <v>48.8744444175946</v>
       </c>
       <c r="G33">
-        <v>285.3543293540055</v>
+        <v>283.1869740582054</v>
       </c>
       <c r="H33">
-        <v>1782.043271648601</v>
+        <v>1711.692726620921</v>
       </c>
       <c r="I33">
-        <v>-144.9986148724795</v>
+        <v>-143.2813821498116</v>
       </c>
       <c r="J33">
-        <v>486.6292373304094</v>
+        <v>482.1447168693284</v>
       </c>
       <c r="K33">
-        <v>2290.769294940902</v>
+        <v>2436.524111037245</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.08343128842166</v>
+        <v>50.02925016621273</v>
       </c>
       <c r="G34">
-        <v>326.0315980497045</v>
+        <v>305.8554886542921</v>
       </c>
       <c r="H34">
-        <v>1773.472864502819</v>
+        <v>1848.926570454725</v>
       </c>
       <c r="I34">
-        <v>-82.04803392569919</v>
+        <v>-83.84544832961774</v>
       </c>
       <c r="J34">
-        <v>428.9525644095985</v>
+        <v>435.7166099213152</v>
       </c>
       <c r="K34">
-        <v>2136.559623470239</v>
+        <v>2203.498300995123</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.65861672977844</v>
+        <v>48.8405454825434</v>
       </c>
       <c r="G35">
-        <v>317.7289974846467</v>
+        <v>315.9051994119904</v>
       </c>
       <c r="H35">
-        <v>1740.384640734834</v>
+        <v>1791.55866317969</v>
       </c>
       <c r="I35">
-        <v>-17.9163810040473</v>
+        <v>-17.92457627561278</v>
       </c>
       <c r="J35">
-        <v>375.8077534110643</v>
+        <v>377.9778369740146</v>
       </c>
       <c r="K35">
-        <v>2032.709320414821</v>
+        <v>1953.062547567212</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.12330693126486</v>
+        <v>49.49009950356372</v>
       </c>
       <c r="G36">
-        <v>339.1394522044578</v>
+        <v>361.6191921563315</v>
       </c>
       <c r="H36">
-        <v>1852.604844180202</v>
+        <v>1793.439536258074</v>
       </c>
       <c r="I36">
-        <v>49.62461976011755</v>
+        <v>46.18096038496041</v>
       </c>
       <c r="J36">
-        <v>343.1315868481146</v>
+        <v>345.2169275068611</v>
       </c>
       <c r="K36">
-        <v>1810.008018537931</v>
+        <v>1817.081820065296</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.77004155614535</v>
+        <v>47.80235515349901</v>
       </c>
       <c r="G37">
-        <v>356.6753360805092</v>
+        <v>369.2816613547122</v>
       </c>
       <c r="H37">
-        <v>1923.596734813488</v>
+        <v>1823.095880102272</v>
       </c>
       <c r="I37">
-        <v>120.6526561213236</v>
+        <v>113.988041948984</v>
       </c>
       <c r="J37">
-        <v>308.145053472468</v>
+        <v>298.1049988719225</v>
       </c>
       <c r="K37">
-        <v>1663.291317576445</v>
+        <v>1577.737320188916</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.13816983793779</v>
+        <v>44.23593392677854</v>
       </c>
       <c r="G38">
-        <v>363.8616482613654</v>
+        <v>372.4659902090779</v>
       </c>
       <c r="H38">
-        <v>1906.815771607384</v>
+        <v>1800.42203284753</v>
       </c>
       <c r="I38">
-        <v>184.4019825345279</v>
+        <v>177.3576573756823</v>
       </c>
       <c r="J38">
-        <v>260.2856899120231</v>
+        <v>242.7500611256957</v>
       </c>
       <c r="K38">
-        <v>1422.967251390958</v>
+        <v>1336.2504487402</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.99861265626635</v>
+        <v>44.87430879064097</v>
       </c>
       <c r="G39">
-        <v>410.8936137639542</v>
+        <v>411.6663308962942</v>
       </c>
       <c r="H39">
-        <v>1846.069991593488</v>
+        <v>1774.518876854548</v>
       </c>
       <c r="I39">
-        <v>247.9801688956255</v>
+        <v>244.8259583598511</v>
       </c>
       <c r="J39">
-        <v>201.4231530488713</v>
+        <v>207.1316895784593</v>
       </c>
       <c r="K39">
-        <v>1180.782797916416</v>
+        <v>1196.287422952252</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.56396562505783</v>
+        <v>45.93095624809976</v>
       </c>
       <c r="G40">
-        <v>400.0918487347978</v>
+        <v>407.416539229033</v>
       </c>
       <c r="H40">
-        <v>1873.1296867715</v>
+        <v>1862.460958529201</v>
       </c>
       <c r="I40">
-        <v>316.0897106046329</v>
+        <v>314.0124530437751</v>
       </c>
       <c r="J40">
-        <v>155.3217469687685</v>
+        <v>152.81203152395</v>
       </c>
       <c r="K40">
-        <v>921.778682554524</v>
+        <v>879.0594632642856</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.75148991756211</v>
+        <v>42.29516278136339</v>
       </c>
       <c r="G41">
-        <v>444.5304922792728</v>
+        <v>433.6053204755483</v>
       </c>
       <c r="H41">
-        <v>1842.282475477349</v>
+        <v>1929.605357074391</v>
       </c>
       <c r="I41">
-        <v>420.2212470248452</v>
+        <v>410.3101944392191</v>
       </c>
       <c r="J41">
-        <v>107.4530615040085</v>
+        <v>99.41043794601237</v>
       </c>
       <c r="K41">
-        <v>621.706953339345</v>
+        <v>650.5994150204049</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.83372065278651</v>
+        <v>43.23751435268385</v>
       </c>
       <c r="G42">
-        <v>448.144737022012</v>
+        <v>454.1542974760127</v>
       </c>
       <c r="H42">
-        <v>1957.167911967492</v>
+        <v>1800.954669764266</v>
       </c>
       <c r="I42">
-        <v>477.2772697921962</v>
+        <v>468.1992634834785</v>
       </c>
       <c r="J42">
-        <v>55.30551570388035</v>
+        <v>52.38511627024785</v>
       </c>
       <c r="K42">
-        <v>340.3634647159436</v>
+        <v>321.8088347549132</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.24004822102739</v>
+        <v>41.09582533183183</v>
       </c>
       <c r="G43">
-        <v>450.4271875521296</v>
+        <v>464.2756771971513</v>
       </c>
       <c r="H43">
-        <v>1834.544263738435</v>
+        <v>1864.006842975653</v>
       </c>
       <c r="I43">
-        <v>562.6930870013679</v>
+        <v>540.9027820013059</v>
       </c>
       <c r="J43">
-        <v>5.397431782257044</v>
+        <v>5.075593414788628</v>
       </c>
       <c r="K43">
-        <v>34.96793994473526</v>
+        <v>34.52893271548912</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.12467573465012</v>
+        <v>39.91588371532815</v>
       </c>
       <c r="G44">
-        <v>484.1034250888312</v>
+        <v>479.1065416913833</v>
       </c>
       <c r="H44">
-        <v>1821.270015502383</v>
+        <v>1972.170926814508</v>
       </c>
       <c r="I44">
-        <v>646.6435329844981</v>
+        <v>617.2305441996333</v>
       </c>
       <c r="J44">
-        <v>-41.43135342633748</v>
+        <v>-42.34773463432457</v>
       </c>
       <c r="K44">
-        <v>-297.6793064509201</v>
+        <v>-275.5901997511859</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.56439819175307</v>
+        <v>41.46664860235103</v>
       </c>
       <c r="G45">
-        <v>508.797620657823</v>
+        <v>489.3018310094405</v>
       </c>
       <c r="H45">
-        <v>1927.78508797842</v>
+        <v>1897.887024344643</v>
       </c>
       <c r="I45">
-        <v>719.760414034845</v>
+        <v>753.2052347447719</v>
       </c>
       <c r="J45">
-        <v>-90.32886163709813</v>
+        <v>-88.24281115064524</v>
       </c>
       <c r="K45">
-        <v>-607.2808748567851</v>
+        <v>-593.0726313143888</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.44532943648428</v>
+        <v>41.13294822386025</v>
       </c>
       <c r="G46">
-        <v>493.3680016637165</v>
+        <v>497.121120722364</v>
       </c>
       <c r="H46">
-        <v>1979.230233796877</v>
+        <v>1991.280826790167</v>
       </c>
       <c r="I46">
-        <v>831.7521873332615</v>
+        <v>795.9015212758715</v>
       </c>
       <c r="J46">
-        <v>-137.6934884964284</v>
+        <v>-136.3257232682792</v>
       </c>
       <c r="K46">
-        <v>-991.6706974913413</v>
+        <v>-962.2101562150518</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.08011157659756</v>
+        <v>39.68799714262374</v>
       </c>
       <c r="G47">
-        <v>553.5160193927593</v>
+        <v>541.8391186127767</v>
       </c>
       <c r="H47">
-        <v>2001.774188709404</v>
+        <v>1949.800036410646</v>
       </c>
       <c r="I47">
-        <v>858.8255001340658</v>
+        <v>846.8787766191602</v>
       </c>
       <c r="J47">
-        <v>-184.8637448568679</v>
+        <v>-191.7880105262557</v>
       </c>
       <c r="K47">
-        <v>-1317.52817215654</v>
+        <v>-1265.116921906236</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.59055103045046</v>
+        <v>39.61917368749709</v>
       </c>
       <c r="G48">
-        <v>553.5571457431062</v>
+        <v>564.1576184650448</v>
       </c>
       <c r="H48">
-        <v>2025.102067034353</v>
+        <v>2029.188747286948</v>
       </c>
       <c r="I48">
-        <v>971.5456189478739</v>
+        <v>992.2057007397199</v>
       </c>
       <c r="J48">
-        <v>-229.8911675480083</v>
+        <v>-229.6266648789914</v>
       </c>
       <c r="K48">
-        <v>-1704.435977686215</v>
+        <v>-1773.915744753296</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.78302754012573</v>
+        <v>40.8275767838444</v>
       </c>
       <c r="G49">
-        <v>574.4723004321511</v>
+        <v>537.4724420701664</v>
       </c>
       <c r="H49">
-        <v>2014.973705804858</v>
+        <v>1987.58569975368</v>
       </c>
       <c r="I49">
-        <v>1112.600608460082</v>
+        <v>1116.156633116711</v>
       </c>
       <c r="J49">
-        <v>-281.4506922794722</v>
+        <v>-285.1715254677275</v>
       </c>
       <c r="K49">
-        <v>-1997.382188914717</v>
+        <v>-2006.535973218113</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.7226183312638</v>
+        <v>37.21833219520354</v>
       </c>
       <c r="G50">
-        <v>594.757549464491</v>
+        <v>562.0606885621197</v>
       </c>
       <c r="H50">
-        <v>1941.863346690456</v>
+        <v>1918.226406899159</v>
       </c>
       <c r="I50">
-        <v>1146.357525443517</v>
+        <v>1125.093770575774</v>
       </c>
       <c r="J50">
-        <v>-340.8986157174271</v>
+        <v>-322.6123169707297</v>
       </c>
       <c r="K50">
-        <v>-2545.20277935647</v>
+        <v>-2560.395673705968</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.62434611514912</v>
+        <v>38.91667412382287</v>
       </c>
       <c r="G51">
-        <v>582.8784907780508</v>
+        <v>582.211966010528</v>
       </c>
       <c r="H51">
-        <v>1976.541206965891</v>
+        <v>1866.877997883063</v>
       </c>
       <c r="I51">
-        <v>1258.176885942253</v>
+        <v>1309.321509770236</v>
       </c>
       <c r="J51">
-        <v>-402.5196325342326</v>
+        <v>-367.2174918145439</v>
       </c>
       <c r="K51">
-        <v>-2839.139172010722</v>
+        <v>-2808.263796942931</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.42326654683547</v>
+        <v>37.35578756099079</v>
       </c>
       <c r="G52">
-        <v>591.441637143767</v>
+        <v>599.9829147049898</v>
       </c>
       <c r="H52">
-        <v>2041.223431295593</v>
+        <v>1988.994353102552</v>
       </c>
       <c r="I52">
-        <v>1344.43472790017</v>
+        <v>1372.48585318388</v>
       </c>
       <c r="J52">
-        <v>-422.2868034849394</v>
+        <v>-446.9191184317644</v>
       </c>
       <c r="K52">
-        <v>-3492.240846317499</v>
+        <v>-3233.55976252517</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.06774380647956</v>
+        <v>36.04941855076813</v>
       </c>
       <c r="G53">
-        <v>641.677753212335</v>
+        <v>644.1912059656898</v>
       </c>
       <c r="H53">
-        <v>2060.530758996323</v>
+        <v>2039.322472202367</v>
       </c>
       <c r="I53">
-        <v>1487.446657366673</v>
+        <v>1451.959112851049</v>
       </c>
       <c r="J53">
-        <v>-493.4444342219087</v>
+        <v>-478.680324950707</v>
       </c>
       <c r="K53">
-        <v>-4001.71825210832</v>
+        <v>-3950.57347011045</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.24603447861668</v>
+        <v>36.4631394423653</v>
       </c>
       <c r="G54">
-        <v>636.7991169162104</v>
+        <v>662.855101643997</v>
       </c>
       <c r="H54">
-        <v>2002.347931419366</v>
+        <v>2079.197340642532</v>
       </c>
       <c r="I54">
-        <v>1590.829867514479</v>
+        <v>1557.440988940864</v>
       </c>
       <c r="J54">
-        <v>-516.1739756728629</v>
+        <v>-533.5640131138408</v>
       </c>
       <c r="K54">
-        <v>-4162.172034932452</v>
+        <v>-4108.97453318405</v>
       </c>
     </row>
   </sheetData>
